--- a/Software Testing/Manual Testing Classwork.xlsx
+++ b/Software Testing/Manual Testing Classwork.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B9270D0-7B18-44A6-9D9C-048C6C79FB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5001175-720B-4FAD-97AD-B877185B0AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A0E837D9-4C43-462D-8582-A6D125568CFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Module Name:</t>
   </si>
@@ -179,6 +179,36 @@
   </si>
   <si>
     <t>Message box got displayed</t>
+  </si>
+  <si>
+    <t>TC_ERP_Login_003</t>
+  </si>
+  <si>
+    <t>Enter an invalid username and a valid password</t>
+  </si>
+  <si>
+    <t>1. Enter an invalid username
+2. Enter a valid password
+3. Click on the Login Button</t>
+  </si>
+  <si>
+    <t>Username: xxxx@erp.com
+Password: P@ssw0rd</t>
+  </si>
+  <si>
+    <t>TC_ERP_Login_004</t>
+  </si>
+  <si>
+    <t>Enter a valid username and an invalid password</t>
+  </si>
+  <si>
+    <t>1. Enter a valid username
+2. Enter an invalid password
+3. Click on the Login Button</t>
+  </si>
+  <si>
+    <t>Username: admin@erp.com
+Password: xxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -219,7 +249,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +268,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -324,11 +372,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -354,23 +561,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB85DB78-43F8-408B-A623-D6D787375C5D}">
   <dimension ref="A3:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -723,7 +987,7 @@
     <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.77734375" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -776,143 +1040,230 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="10" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:14" s="8" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="11" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="28">
         <v>45107</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="11" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="12">
         <v>45109</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="15">
+        <v>45110</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="23">
+        <v>45111</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
